--- a/Attachment_Log.xlsx
+++ b/Attachment_Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\Y4S2\Comp 492\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\Hello-Laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D91DF-E1DF-4659-8399-9CA455B4BA71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77F45EE-2D80-4E05-A921-87DF34C2EA91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{071CADB4-5783-4E43-8798-C40C7CA91C26}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -57,10 +57,22 @@
     <t>Troubleshooting local server</t>
   </si>
   <si>
-    <t>MON 22/95/2023</t>
-  </si>
-  <si>
     <t>Handling forms in Laravel</t>
+  </si>
+  <si>
+    <t>TUE 23/05/2023</t>
+  </si>
+  <si>
+    <t>MON 22/05/2023</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>WED 24/05/2023</t>
+  </si>
+  <si>
+    <t>Tables</t>
   </si>
 </sst>
 </file>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197677F0-F9D8-4EF0-8C88-859D23B74D88}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,10 +489,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Attachment_Log.xlsx
+++ b/Attachment_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\Hello-Laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77F45EE-2D80-4E05-A921-87DF34C2EA91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FEA685-41C0-4800-9B26-4A40176FBD58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{071CADB4-5783-4E43-8798-C40C7CA91C26}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DATE</t>
   </si>
@@ -45,9 +45,6 @@
     <t>THUR 18/05/2023</t>
   </si>
   <si>
-    <t>Libraries - Autnhentication</t>
-  </si>
-  <si>
     <t>Publish project to github</t>
   </si>
   <si>
@@ -73,6 +70,27 @@
   </si>
   <si>
     <t>Tables</t>
+  </si>
+  <si>
+    <t>Libraries - breeze - Authentication</t>
+  </si>
+  <si>
+    <t>THUR 25/05/2023</t>
+  </si>
+  <si>
+    <t>Queries</t>
+  </si>
+  <si>
+    <t>FRI 26/05/2023</t>
+  </si>
+  <si>
+    <t>Displaying data</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>MON 29/05/2023</t>
   </si>
 </sst>
 </file>
@@ -433,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197677F0-F9D8-4EF0-8C88-859D23B74D88}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,44 +489,68 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
